--- a/чистый бланк/ЗАКАЗ КРЫМ 12,03,24ц-выезд 14,03.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 12,03,24ц-выезд 14,03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08360F-EC0E-4727-B190-27EA7BD5DC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71270B39-29EB-485D-A3DC-133203178D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$126</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1716,7 +1716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
